--- a/data/coronovirus_stats_data.xlsx
+++ b/data/coronovirus_stats_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>date</t>
   </si>
@@ -281,6 +281,24 @@
   </si>
   <si>
     <t>24.05.2020</t>
+  </si>
+  <si>
+    <t>25.05.2020</t>
+  </si>
+  <si>
+    <t>26.05.2020</t>
+  </si>
+  <si>
+    <t>27.05.2020</t>
+  </si>
+  <si>
+    <t>28.05.2020</t>
+  </si>
+  <si>
+    <t>29.05.2020</t>
+  </si>
+  <si>
+    <t>30.05.2020</t>
   </si>
 </sst>
 </file>
@@ -288,8 +306,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -318,24 +336,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,11 +366,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,58 +467,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -440,25 +474,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -471,7 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,7 +513,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,85 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,25 +621,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,19 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,31 +687,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,6 +696,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -737,17 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -762,153 +756,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,10 +1265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -3493,8 +3511,179 @@
         <v>282500</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3"/>
+    <row r="82" spans="1:9">
+      <c r="A82" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="1">
+        <v>831</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2560</v>
+      </c>
+      <c r="D82" s="1">
+        <v>58</v>
+      </c>
+      <c r="E82" s="1">
+        <v>374</v>
+      </c>
+      <c r="F82" s="1">
+        <v>353427</v>
+      </c>
+      <c r="G82" s="1">
+        <v>8946</v>
+      </c>
+      <c r="H82" s="1">
+        <v>8950000</v>
+      </c>
+      <c r="I82">
+        <v>260100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="1">
+        <v>817</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2830</v>
+      </c>
+      <c r="D83" s="1">
+        <v>58</v>
+      </c>
+      <c r="E83" s="1">
+        <v>363</v>
+      </c>
+      <c r="F83" s="1">
+        <v>362342</v>
+      </c>
+      <c r="G83" s="1">
+        <v>8915</v>
+      </c>
+      <c r="H83" s="1">
+        <v>9160000</v>
+      </c>
+      <c r="I83">
+        <v>215200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="1">
+        <v>793</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2140</v>
+      </c>
+      <c r="D84" s="1">
+        <v>56</v>
+      </c>
+      <c r="E84" s="1">
+        <v>387</v>
+      </c>
+      <c r="F84" s="1">
+        <v>370680</v>
+      </c>
+      <c r="G84" s="1">
+        <v>8338</v>
+      </c>
+      <c r="H84" s="1">
+        <v>9420000</v>
+      </c>
+      <c r="I84">
+        <v>255400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="1">
+        <v>774</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2054</v>
+      </c>
+      <c r="D85" s="1">
+        <v>51</v>
+      </c>
+      <c r="E85" s="1">
+        <v>383</v>
+      </c>
+      <c r="F85" s="1">
+        <v>379051</v>
+      </c>
+      <c r="G85" s="1">
+        <v>8371</v>
+      </c>
+      <c r="H85" s="1">
+        <v>9700000</v>
+      </c>
+      <c r="I85">
+        <v>285300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="1">
+        <v>773</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2332</v>
+      </c>
+      <c r="D86" s="1">
+        <v>53</v>
+      </c>
+      <c r="E86" s="1">
+        <v>369</v>
+      </c>
+      <c r="F86" s="1">
+        <v>387623</v>
+      </c>
+      <c r="G86" s="1">
+        <v>8572</v>
+      </c>
+      <c r="H86" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="I86">
+        <v>299000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="1">
+        <v>735</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2367</v>
+      </c>
+      <c r="D87" s="1">
+        <v>55</v>
+      </c>
+      <c r="E87" s="1">
+        <v>365</v>
+      </c>
+      <c r="F87" s="1">
+        <v>396575</v>
+      </c>
+      <c r="G87" s="1">
+        <v>8952</v>
+      </c>
+      <c r="H87" s="1">
+        <v>10300000</v>
+      </c>
+      <c r="I87">
+        <v>315900</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/coronovirus_stats_data.xlsx
+++ b/data/coronovirus_stats_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>date</t>
   </si>
@@ -299,6 +299,27 @@
   </si>
   <si>
     <t>30.05.2020</t>
+  </si>
+  <si>
+    <t>31.05.2020</t>
+  </si>
+  <si>
+    <t>01.06.2020</t>
+  </si>
+  <si>
+    <t>02.06.2020</t>
+  </si>
+  <si>
+    <t>03.06.2020</t>
+  </si>
+  <si>
+    <t>04.06.2020</t>
+  </si>
+  <si>
+    <t>05.06.2020</t>
+  </si>
+  <si>
+    <t>06.06.2020</t>
   </si>
 </sst>
 </file>
@@ -306,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -336,6 +357,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -345,14 +396,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,9 +462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,59 +480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,29 +489,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,13 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +552,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,25 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,13 +594,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,25 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,37 +660,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,27 +708,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,6 +729,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -742,17 +767,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,148 +806,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,10 +1286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -3685,6 +3706,209 @@
         <v>315900</v>
       </c>
     </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="1">
+        <v>757</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2595</v>
+      </c>
+      <c r="D88" s="1">
+        <v>54</v>
+      </c>
+      <c r="E88" s="1">
+        <v>369</v>
+      </c>
+      <c r="F88" s="1">
+        <v>405843</v>
+      </c>
+      <c r="G88" s="1">
+        <v>9268</v>
+      </c>
+      <c r="H88" s="1">
+        <v>10600000</v>
+      </c>
+      <c r="I88">
+        <v>327000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="1">
+        <v>728</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2297</v>
+      </c>
+      <c r="D89" s="1">
+        <v>53</v>
+      </c>
+      <c r="E89" s="1">
+        <v>364</v>
+      </c>
+      <c r="F89" s="1">
+        <v>414878</v>
+      </c>
+      <c r="G89" s="1">
+        <v>9035</v>
+      </c>
+      <c r="H89" s="1">
+        <v>10920000</v>
+      </c>
+      <c r="I89">
+        <v>279900</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="1">
+        <v>732</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2286</v>
+      </c>
+      <c r="D90" s="1">
+        <v>53</v>
+      </c>
+      <c r="E90" s="1">
+        <v>376</v>
+      </c>
+      <c r="F90" s="1">
+        <v>423741</v>
+      </c>
+      <c r="G90" s="1">
+        <v>8863</v>
+      </c>
+      <c r="H90" s="1">
+        <v>11150000</v>
+      </c>
+      <c r="I90">
+        <v>228500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="1">
+        <v>736</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1842</v>
+      </c>
+      <c r="D91" s="1">
+        <v>54</v>
+      </c>
+      <c r="E91" s="1">
+        <v>380</v>
+      </c>
+      <c r="F91" s="1">
+        <v>432277</v>
+      </c>
+      <c r="G91" s="1">
+        <v>8536</v>
+      </c>
+      <c r="H91" s="1">
+        <v>11430000</v>
+      </c>
+      <c r="I91">
+        <v>274400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="1">
+        <v>767</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D92" s="1">
+        <v>52</v>
+      </c>
+      <c r="E92" s="1">
+        <v>375</v>
+      </c>
+      <c r="F92" s="1">
+        <v>441108</v>
+      </c>
+      <c r="G92" s="1">
+        <v>8831</v>
+      </c>
+      <c r="H92" s="1">
+        <v>11730000</v>
+      </c>
+      <c r="I92">
+        <v>306300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="1">
+        <v>762</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1855</v>
+      </c>
+      <c r="D93" s="1">
+        <v>52</v>
+      </c>
+      <c r="E93" s="1">
+        <v>378</v>
+      </c>
+      <c r="F93" s="1">
+        <v>449834</v>
+      </c>
+      <c r="G93" s="1">
+        <v>8726</v>
+      </c>
+      <c r="H93" s="1">
+        <v>12050000</v>
+      </c>
+      <c r="I93">
+        <v>318600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="1">
+        <v>758</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1992</v>
+      </c>
+      <c r="D94" s="1">
+        <v>51</v>
+      </c>
+      <c r="E94" s="1">
+        <v>347</v>
+      </c>
+      <c r="F94" s="1">
+        <v>458689</v>
+      </c>
+      <c r="G94" s="1">
+        <v>8855</v>
+      </c>
+      <c r="H94" s="1">
+        <v>12390000</v>
+      </c>
+      <c r="I94">
+        <v>331100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
